--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/55/parameters.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/55/parameters.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3233233233233233</v>
+        <v>0.6096609660966097</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1841.841841841842</v>
+        <v>1162.776277627763</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.02352352352352352</v>
+        <v>0.08795879587958796</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.09309309309309309</v>
+        <v>0.4518451845184518</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1511.511511511512</v>
+        <v>1371.797179717972</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>343.3433433433433</v>
+        <v>766.4266426642664</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>694.6946946946947</v>
+        <v>266.061206120612</v>
       </c>
     </row>
   </sheetData>
